--- a/Data_processed/industry/chemicals.xlsx
+++ b/Data_processed/industry/chemicals.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/industry/chemicals.xlsx
+++ b/Data_processed/industry/chemicals.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon MJ</t>
+          <t>Carbon kg-CO2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/Data_processed/industry/chemicals.xlsx
+++ b/Data_processed/industry/chemicals.xlsx
@@ -134,6 +134,51 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,37 +481,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total MJ</t>
+          <t>carbon (kg CO2 eq)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon kg-CO2</t>
+          <t>ced (MJ)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CED MJ</t>
+          <t>climate change (kg CO2 eq)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>region</t>
         </is>
       </c>
     </row>
@@ -487,13 +532,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.1233570988245868</v>
+        <v>0.2090058666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2090058666666667</v>
+        <v>6.4803149</v>
       </c>
       <c r="F2" t="n">
-        <v>6.4803149</v>
+        <v>5.8276381e-06</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -518,13 +563,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.09572295902964099</v>
+        <v>0.6367931466666666</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6367931466666666</v>
+        <v>0.087160556</v>
       </c>
       <c r="F3" t="n">
-        <v>0.087160556</v>
+        <v>1.7755483e-05</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -549,13 +594,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1268135418567</v>
+        <v>0.4684158066666667</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4684158066666667</v>
+        <v>7.4389603</v>
       </c>
       <c r="F4" t="n">
-        <v>7.4389603</v>
+        <v>1.3060676e-05</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -580,13 +625,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.02170636539</v>
+        <v>0.08892</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08892</v>
+        <v>1.56066</v>
       </c>
       <c r="F5" t="n">
-        <v>1.56066</v>
+        <v>2.4793255e-06</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,13 +656,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.967139264959</v>
+        <v>8.856381333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>8.856381333333333</v>
+        <v>57.483868</v>
       </c>
       <c r="F6" t="n">
-        <v>57.483868</v>
+        <v>0.00024693941</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -642,13 +687,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.330070109808216</v>
+        <v>1.9576598</v>
       </c>
       <c r="E7" t="n">
-        <v>1.9576598</v>
+        <v>30.555022</v>
       </c>
       <c r="F7" t="n">
-        <v>30.555022</v>
+        <v>5.4584749e-05</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -673,13 +718,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.350607203428193</v>
+        <v>1.876119866666667</v>
       </c>
       <c r="E8" t="n">
-        <v>1.876119866666667</v>
+        <v>52.548438</v>
       </c>
       <c r="F8" t="n">
-        <v>52.548438</v>
+        <v>5.23112e-05</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -704,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.1948030005567</v>
+        <v>0.9553889333333334</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9553889333333334</v>
+        <v>37.180927</v>
       </c>
       <c r="F9" t="n">
-        <v>37.180927</v>
+        <v>2.6638779e-05</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,13 +780,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.627592464910758</v>
+        <v>3.512974933333334</v>
       </c>
       <c r="E10" t="n">
-        <v>3.512974933333334</v>
+        <v>79.868458</v>
       </c>
       <c r="F10" t="n">
-        <v>79.868458</v>
+        <v>9.7951063e-05</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -766,13 +811,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.408858103491825</v>
+        <v>2.2126572</v>
       </c>
       <c r="E11" t="n">
-        <v>2.2126572</v>
+        <v>27.006297</v>
       </c>
       <c r="F11" t="n">
-        <v>27.006297</v>
+        <v>6.1694753e-05</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -797,13 +842,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.119190638576346</v>
+        <v>0.35</v>
       </c>
       <c r="E12" t="n">
-        <v>0.35</v>
+        <v>52.756089</v>
       </c>
       <c r="F12" t="n">
-        <v>52.756089</v>
+        <v>9.7589287e-06</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -828,13 +873,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.73922179667</v>
+        <v>3.957494466666667</v>
       </c>
       <c r="E13" t="n">
-        <v>3.957494466666667</v>
+        <v>59.806456</v>
       </c>
       <c r="F13" t="n">
-        <v>59.806456</v>
+        <v>0.00011034545</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -859,13 +904,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.984547953</v>
+        <v>6.624000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>6.624000000000001</v>
+        <v>122.50976</v>
       </c>
       <c r="F14" t="n">
-        <v>122.50976</v>
+        <v>0.0001846947</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -890,13 +935,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.798512112233</v>
+        <v>4.222249133333333</v>
       </c>
       <c r="E15" t="n">
-        <v>4.222249133333333</v>
+        <v>60.149503</v>
       </c>
       <c r="F15" t="n">
-        <v>60.149503</v>
+        <v>0.00011772751</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -921,13 +966,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.248827322113481</v>
+        <v>1.2045356</v>
       </c>
       <c r="E16" t="n">
-        <v>1.2045356</v>
+        <v>17.446076</v>
       </c>
       <c r="F16" t="n">
-        <v>17.446076</v>
+        <v>3.3585649e-05</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -952,13 +997,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.141401345942079</v>
+        <v>0.7682552666666667</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7682552666666667</v>
+        <v>11.400761</v>
       </c>
       <c r="F17" t="n">
-        <v>11.400761</v>
+        <v>2.1420996e-05</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -983,13 +1028,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.37089694190805</v>
+        <v>2.203487266666667</v>
       </c>
       <c r="E18" t="n">
-        <v>2.203487266666667</v>
+        <v>32.65708</v>
       </c>
       <c r="F18" t="n">
-        <v>32.65708</v>
+        <v>6.1439072e-05</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1014,13 +1059,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.08644971449920001</v>
+        <v>0.4804709200000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4804709200000001</v>
+        <v>7.7779522</v>
       </c>
       <c r="F19" t="n">
-        <v>7.7779522</v>
+        <v>1.3396804e-05</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1045,13 +1090,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.289335207862</v>
+        <v>1.395</v>
       </c>
       <c r="E20" t="n">
-        <v>1.395</v>
+        <v>55.422348</v>
       </c>
       <c r="F20" t="n">
-        <v>55.422348</v>
+        <v>3.8896302e-05</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1076,13 +1121,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.147073558533</v>
+        <v>0.7324115333333334</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7324115333333334</v>
+        <v>15.812549</v>
       </c>
       <c r="F21" t="n">
-        <v>15.812549</v>
+        <v>2.0421577e-05</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1107,13 +1152,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.1907202875090585</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9000000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="F22" t="n">
-        <v>4.5</v>
+        <v>2.5094388e-05</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1138,13 +1183,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.1395708418372586</v>
+        <v>0.71</v>
       </c>
       <c r="E23" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.9796684e-05</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1169,13 +1214,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.1591215655462</v>
+        <v>0.7808038666666667</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7808038666666667</v>
+        <v>6.7708495</v>
       </c>
       <c r="F24" t="n">
-        <v>6.7708495</v>
+        <v>2.1770883e-05</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1200,13 +1245,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.98388236533</v>
+        <v>11.76893066666667</v>
       </c>
       <c r="E25" t="n">
-        <v>11.76893066666667</v>
+        <v>174.91564</v>
       </c>
       <c r="F25" t="n">
-        <v>174.91564</v>
+        <v>0.00032814902</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1231,13 +1276,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.04629524994496</v>
+        <v>0.23430142</v>
       </c>
       <c r="E26" t="n">
-        <v>0.23430142</v>
+        <v>4.2267458</v>
       </c>
       <c r="F26" t="n">
-        <v>4.2267458</v>
+        <v>6.5329453e-06</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1262,13 +1307,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.06756571778496</v>
+        <v>0.3428145266666667</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3428145266666667</v>
+        <v>6.1859778</v>
       </c>
       <c r="F27" t="n">
-        <v>6.1859778</v>
+        <v>9.5585786e-06</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1293,13 +1338,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5.388872951</v>
+        <v>27.49179466666667</v>
       </c>
       <c r="E28" t="n">
-        <v>27.49179466666667</v>
+        <v>496.37143</v>
       </c>
       <c r="F28" t="n">
-        <v>496.37143</v>
+        <v>0.0007665441700000001</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1324,13 +1369,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.183286358898665</v>
+        <v>0.6032716866666666</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6032716866666666</v>
+        <v>209.68533</v>
       </c>
       <c r="F29" t="n">
-        <v>209.68533</v>
+        <v>1.6820815e-05</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1355,13 +1400,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.6614051875</v>
+        <v>3.374214933333334</v>
       </c>
       <c r="E30" t="n">
-        <v>3.374214933333334</v>
+        <v>60.92232</v>
       </c>
       <c r="F30" t="n">
-        <v>60.92232</v>
+        <v>9.4082065e-05</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1386,13 +1431,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.35157465</v>
+        <v>2.3434219</v>
       </c>
       <c r="E31" t="n">
-        <v>2.3434219</v>
+        <v>0.050701315</v>
       </c>
       <c r="F31" t="n">
-        <v>0.050701315</v>
+        <v>6.534082e-05</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1417,13 +1462,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.69753617</v>
+        <v>3.2493729</v>
       </c>
       <c r="E32" t="n">
-        <v>3.2493729</v>
+        <v>111.54289</v>
       </c>
       <c r="F32" t="n">
-        <v>111.54289</v>
+        <v>9.060114000000001e-05</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1448,13 +1493,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>35.952674</v>
+        <v>24.182031</v>
       </c>
       <c r="E33" t="n">
-        <v>24.182031</v>
+        <v>126.44531</v>
       </c>
       <c r="F33" t="n">
-        <v>126.44531</v>
+        <v>0.0006742592</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1479,13 +1524,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.5697654</v>
+        <v>9.1286679</v>
       </c>
       <c r="E34" t="n">
-        <v>9.1286679</v>
+        <v>122.26178</v>
       </c>
       <c r="F34" t="n">
-        <v>122.26178</v>
+        <v>0.00025571785</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1510,13 +1555,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.089651195</v>
+        <v>0.53403182</v>
       </c>
       <c r="E35" t="n">
-        <v>0.53403182</v>
+        <v>7.754748</v>
       </c>
       <c r="F35" t="n">
-        <v>7.754748</v>
+        <v>1.48909e-05</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1541,13 +1586,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.15491646</v>
+        <v>0.91339003</v>
       </c>
       <c r="E36" t="n">
-        <v>0.91339003</v>
+        <v>13.703108</v>
       </c>
       <c r="F36" t="n">
-        <v>13.703108</v>
+        <v>2.5468071e-05</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1572,13 +1617,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.35310182</v>
+        <v>1.7753306</v>
       </c>
       <c r="E37" t="n">
-        <v>1.7753306</v>
+        <v>28.369115</v>
       </c>
       <c r="F37" t="n">
-        <v>28.369115</v>
+        <v>4.9500928e-05</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1603,13 +1648,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.17839403</v>
+        <v>0.97906326</v>
       </c>
       <c r="E38" t="n">
-        <v>0.97906326</v>
+        <v>4.9399735</v>
       </c>
       <c r="F38" t="n">
-        <v>4.9399735</v>
+        <v>2.7298882e-05</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1634,13 +1679,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.7285456</v>
+        <v>2.2603512</v>
       </c>
       <c r="E39" t="n">
-        <v>2.2603512</v>
+        <v>-7.0871296</v>
       </c>
       <c r="F39" t="n">
-        <v>-7.0871296</v>
+        <v>6.302459e-05</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1665,13 +1710,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>22.189435</v>
+        <v>45.095508</v>
       </c>
       <c r="E40" t="n">
-        <v>45.095508</v>
+        <v>1.2539938</v>
       </c>
       <c r="F40" t="n">
-        <v>1.2539938</v>
+        <v>0.0012573824</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1696,13 +1741,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>40.546344</v>
+        <v>24.595508</v>
       </c>
       <c r="E41" t="n">
-        <v>24.595508</v>
+        <v>1.2539938</v>
       </c>
       <c r="F41" t="n">
-        <v>1.2539938</v>
+        <v>0.00068578803</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1727,13 +1772,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.23157265</v>
+        <v>1.2713395</v>
       </c>
       <c r="E42" t="n">
-        <v>1.2713395</v>
+        <v>6.4124585</v>
       </c>
       <c r="F42" t="n">
-        <v>6.4124585</v>
+        <v>3.5448319e-05</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1758,13 +1803,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.58252055</v>
+        <v>3.4551419</v>
       </c>
       <c r="E43" t="n">
-        <v>3.4551419</v>
+        <v>51.276116</v>
       </c>
       <c r="F43" t="n">
-        <v>51.276116</v>
+        <v>9.6338525e-05</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1789,13 +1834,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.25675662</v>
+        <v>1.1394493</v>
       </c>
       <c r="E44" t="n">
-        <v>1.1394493</v>
+        <v>13.834677</v>
       </c>
       <c r="F44" t="n">
-        <v>13.834677</v>
+        <v>3.1770871e-05</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1820,13 +1865,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.031259444</v>
+        <v>0.15912235</v>
       </c>
       <c r="E45" t="n">
-        <v>0.15912235</v>
+        <v>2.3844127</v>
       </c>
       <c r="F45" t="n">
-        <v>2.3844127</v>
+        <v>4.4657961e-06</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1851,13 +1896,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.019928819</v>
+        <v>0.06</v>
       </c>
       <c r="E46" t="n">
-        <v>0.06</v>
+        <v>2.6</v>
       </c>
       <c r="F46" t="n">
-        <v>2.6</v>
+        <v>1.6729592e-06</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1882,13 +1927,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.021429012</v>
+        <v>0.06</v>
       </c>
       <c r="E47" t="n">
-        <v>0.06</v>
+        <v>2.58</v>
       </c>
       <c r="F47" t="n">
-        <v>2.58</v>
+        <v>1.6729592e-06</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1913,13 +1958,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.0561506</v>
+        <v>2.2107842</v>
       </c>
       <c r="E48" t="n">
-        <v>2.2107842</v>
+        <v>62.571125</v>
       </c>
       <c r="F48" t="n">
-        <v>62.571125</v>
+        <v>6.164253e-05</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1944,13 +1989,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.14700465</v>
+        <v>0.73102531</v>
       </c>
       <c r="E49" t="n">
-        <v>0.73102531</v>
+        <v>15.812549</v>
       </c>
       <c r="F49" t="n">
-        <v>15.812549</v>
+        <v>2.0421577e-05</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1975,13 +2020,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.14284186</v>
+        <v>0.65</v>
       </c>
       <c r="E50" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1.8123725e-05</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2006,13 +2051,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.17479006</v>
+        <v>0.86</v>
       </c>
       <c r="E51" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>2.3979082e-05</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2037,13 +2082,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.15487886</v>
+        <v>0.74700844</v>
       </c>
       <c r="E52" t="n">
-        <v>0.74700844</v>
+        <v>5.2708495</v>
       </c>
       <c r="F52" t="n">
-        <v>5.2708495</v>
+        <v>2.0841461e-05</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2068,13 +2113,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.14228829</v>
+        <v>0.63</v>
       </c>
       <c r="E53" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1.7566072e-05</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2099,13 +2144,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.19415108</v>
+        <v>0.93</v>
       </c>
       <c r="E54" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>2.5930868e-05</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2130,13 +2175,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.21891536</v>
+        <v>1.3035711</v>
       </c>
       <c r="E55" t="n">
-        <v>1.3035711</v>
+        <v>19.314787</v>
       </c>
       <c r="F55" t="n">
-        <v>19.314787</v>
+        <v>3.634702e-05</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2161,13 +2206,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.58252055</v>
+        <v>3.4551419</v>
       </c>
       <c r="E56" t="n">
-        <v>3.4551419</v>
+        <v>51.276116</v>
       </c>
       <c r="F56" t="n">
-        <v>51.276116</v>
+        <v>9.6338525e-05</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2223,13 +2268,13 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>10.380973</v>
+        <v>7.5444176</v>
       </c>
       <c r="E58" t="n">
-        <v>7.5444176</v>
+        <v>111.78433</v>
       </c>
       <c r="F58" t="n">
-        <v>111.78433</v>
+        <v>0.00021035838</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2254,13 +2299,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1.0231699</v>
+        <v>5.5273066</v>
       </c>
       <c r="E59" t="n">
-        <v>5.5273066</v>
+        <v>73.31043699999999</v>
       </c>
       <c r="F59" t="n">
-        <v>73.31043699999999</v>
+        <v>0.00015436399</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2285,13 +2330,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>19.643011</v>
+        <v>9.647399999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>9.647399999999999</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>0.00026899511</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2316,13 +2361,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1.9555171</v>
+        <v>3.6844876</v>
       </c>
       <c r="E61" t="n">
-        <v>3.6844876</v>
+        <v>69.057492</v>
       </c>
       <c r="F61" t="n">
-        <v>69.057492</v>
+        <v>0.00010273336</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2347,13 +2392,13 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3.3246524</v>
+        <v>8.7995</v>
       </c>
       <c r="E62" t="n">
-        <v>8.7995</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>0.00024535341</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2378,13 +2423,13 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3.1252378</v>
+        <v>5.4449836</v>
       </c>
       <c r="E63" t="n">
-        <v>5.4449836</v>
+        <v>3.1291823</v>
       </c>
       <c r="F63" t="n">
-        <v>3.1291823</v>
+        <v>0.00015182059</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2409,13 +2454,13 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.55631684</v>
+        <v>1.7914072</v>
       </c>
       <c r="E64" t="n">
-        <v>1.7914072</v>
+        <v>0.65262406</v>
       </c>
       <c r="F64" t="n">
-        <v>0.65262406</v>
+        <v>4.9949186e-05</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2440,13 +2485,13 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.095459157</v>
+        <v>0.46820506</v>
       </c>
       <c r="E65" t="n">
-        <v>0.46820506</v>
+        <v>4.0625097</v>
       </c>
       <c r="F65" t="n">
-        <v>4.0625097</v>
+        <v>1.306253e-05</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2471,13 +2516,13 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.033734936</v>
+        <v>0.12250093</v>
       </c>
       <c r="E66" t="n">
-        <v>0.12250093</v>
+        <v>2.0863065</v>
       </c>
       <c r="F66" t="n">
-        <v>2.0863065</v>
+        <v>3.4169881e-06</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2502,13 +2547,13 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.0013140928</v>
+        <v>0.0060212452</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0060212452</v>
+        <v>0.10316299</v>
       </c>
       <c r="F67" t="n">
-        <v>0.10316299</v>
+        <v>1.6788862e-07</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2533,13 +2578,13 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.2915432013178786</v>
+        <v>1.64</v>
       </c>
       <c r="E68" t="n">
-        <v>1.64</v>
+        <v>34.089</v>
       </c>
       <c r="F68" t="n">
-        <v>34.089</v>
+        <v>4.5727552e-05</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2564,13 +2609,13 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.2915432013178786</v>
+        <v>1.64</v>
       </c>
       <c r="E69" t="n">
-        <v>1.64</v>
+        <v>34.089</v>
       </c>
       <c r="F69" t="n">
-        <v>34.089</v>
+        <v>4.5727552e-05</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2595,13 +2640,13 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.6910367515547</v>
+        <v>3.3067696</v>
       </c>
       <c r="E70" t="n">
-        <v>3.3067696</v>
+        <v>1.5688</v>
       </c>
       <c r="F70" t="n">
-        <v>1.5688</v>
+        <v>9.2201511e-05</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2626,13 +2671,13 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1.856932514413</v>
+        <v>9.680541333333334</v>
       </c>
       <c r="E71" t="n">
-        <v>9.680541333333334</v>
+        <v>178.66103</v>
       </c>
       <c r="F71" t="n">
-        <v>178.66103</v>
+        <v>0.00026991918</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2657,13 +2702,13 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.8726058894119</v>
+        <v>4.696564266666667</v>
       </c>
       <c r="E72" t="n">
-        <v>4.696564266666667</v>
+        <v>79.227611</v>
       </c>
       <c r="F72" t="n">
-        <v>79.227611</v>
+        <v>0.00013095267</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2688,13 +2733,13 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.3514570883180369</v>
+        <v>1.86</v>
       </c>
       <c r="E73" t="n">
-        <v>1.86</v>
+        <v>54.202</v>
       </c>
       <c r="F73" t="n">
-        <v>54.202</v>
+        <v>5.1861735e-05</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2719,13 +2764,13 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.350648335436233</v>
+        <v>1.98</v>
       </c>
       <c r="E74" t="n">
-        <v>1.98</v>
+        <v>53.284</v>
       </c>
       <c r="F74" t="n">
-        <v>53.284</v>
+        <v>5.5207654e-05</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2750,13 +2795,13 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.119190638576346</v>
+        <v>0.35</v>
       </c>
       <c r="E75" t="n">
-        <v>0.35</v>
+        <v>52.756089</v>
       </c>
       <c r="F75" t="n">
-        <v>52.756089</v>
+        <v>9.7589287e-06</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2781,13 +2826,13 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.3185602710008654</v>
+        <v>1.7028</v>
       </c>
       <c r="E76" t="n">
-        <v>1.7028</v>
+        <v>52.61058</v>
       </c>
       <c r="F76" t="n">
-        <v>52.61058</v>
+        <v>4.7478582e-05</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2812,13 +2857,13 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.3273165143361929</v>
+        <v>1.86</v>
       </c>
       <c r="E77" t="n">
-        <v>1.86</v>
+        <v>28.588</v>
       </c>
       <c r="F77" t="n">
-        <v>28.588</v>
+        <v>5.1861735e-05</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2843,13 +2888,13 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1.503353124</v>
+        <v>4.0664314</v>
       </c>
       <c r="E78" t="n">
-        <v>4.0664314</v>
+        <v>106.10521</v>
       </c>
       <c r="F78" t="n">
-        <v>106.10521</v>
+        <v>0.0001133829</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2874,13 +2919,13 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.2453273655631</v>
+        <v>1.425559933333333</v>
       </c>
       <c r="E79" t="n">
-        <v>1.425559933333333</v>
+        <v>50.781172</v>
       </c>
       <c r="F79" t="n">
-        <v>50.781172</v>
+        <v>3.9748394e-05</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2905,13 +2950,13 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.19153770340731</v>
+        <v>1.0818732</v>
       </c>
       <c r="E80" t="n">
-        <v>1.0818732</v>
+        <v>22.001464</v>
       </c>
       <c r="F80" t="n">
-        <v>22.001464</v>
+        <v>3.0165495e-05</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2936,13 +2981,13 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.3843104131738503</v>
+        <v>2.23</v>
       </c>
       <c r="E81" t="n">
-        <v>2.23</v>
+        <v>44.732</v>
       </c>
       <c r="F81" t="n">
-        <v>44.732</v>
+        <v>6.217831699999999e-05</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2967,13 +3012,13 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.2834199783998808</v>
+        <v>1.58</v>
       </c>
       <c r="E82" t="n">
-        <v>1.58</v>
+        <v>51.022</v>
       </c>
       <c r="F82" t="n">
-        <v>51.022</v>
+        <v>4.4054592e-05</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2998,13 +3043,13 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.231324980735221</v>
+        <v>1.174379333333333</v>
       </c>
       <c r="E83" t="n">
-        <v>1.174379333333333</v>
+        <v>13.365076</v>
       </c>
       <c r="F83" t="n">
-        <v>13.365076</v>
+        <v>3.2744813e-05</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3029,13 +3074,13 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.3503232875088993</v>
+        <v>2</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>33.64</v>
       </c>
       <c r="F84" t="n">
-        <v>33.64</v>
+        <v>5.5765307e-05</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3060,13 +3105,13 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.194139458920911</v>
+        <v>0.9444846</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9444846</v>
+        <v>35.986564</v>
       </c>
       <c r="F85" t="n">
-        <v>35.986564</v>
+        <v>2.6334737e-05</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3091,13 +3136,13 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.7458867182319721</v>
+        <v>3.639381466666667</v>
       </c>
       <c r="E86" t="n">
-        <v>3.639381466666667</v>
+        <v>75.42094299999999</v>
       </c>
       <c r="F86" t="n">
-        <v>75.42094299999999</v>
+        <v>0.00010147561</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3122,13 +3167,13 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.2778150523180369</v>
+        <v>1.58</v>
       </c>
       <c r="E87" t="n">
-        <v>1.58</v>
+        <v>24.43</v>
       </c>
       <c r="F87" t="n">
-        <v>24.43</v>
+        <v>4.4054592e-05</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3153,13 +3198,13 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.23811841086668</v>
+        <v>1.1312888</v>
       </c>
       <c r="E88" t="n">
-        <v>1.1312888</v>
+        <v>95.524772</v>
       </c>
       <c r="F88" t="n">
-        <v>95.524772</v>
+        <v>3.1543334e-05</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3184,13 +3229,13 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.119190638576346</v>
+        <v>0.35</v>
       </c>
       <c r="E89" t="n">
-        <v>0.35</v>
+        <v>52.756089</v>
       </c>
       <c r="F89" t="n">
-        <v>52.756089</v>
+        <v>9.7589287e-06</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3215,13 +3260,13 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.2624199783998808</v>
+        <v>1.44</v>
       </c>
       <c r="E90" t="n">
-        <v>1.44</v>
+        <v>51.022</v>
       </c>
       <c r="F90" t="n">
-        <v>51.022</v>
+        <v>4.0151021e-05</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3246,13 +3291,13 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.3187041701814804</v>
+        <v>1.79</v>
       </c>
       <c r="E91" t="n">
-        <v>1.79</v>
+        <v>38.805</v>
       </c>
       <c r="F91" t="n">
-        <v>38.805</v>
+        <v>4.990995e-05</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3277,13 +3322,13 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1.3351155058876</v>
+        <v>6.638980600000001</v>
       </c>
       <c r="E92" t="n">
-        <v>6.638980600000001</v>
+        <v>111.44559</v>
       </c>
       <c r="F92" t="n">
-        <v>111.44559</v>
+        <v>0.00018511239</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3308,13 +3353,13 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.3633104131738503</v>
+        <v>2.09</v>
       </c>
       <c r="E93" t="n">
-        <v>2.09</v>
+        <v>44.732</v>
       </c>
       <c r="F93" t="n">
-        <v>44.732</v>
+        <v>5.8274746e-05</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3339,13 +3384,13 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.2374680471726262</v>
+        <v>1.22</v>
       </c>
       <c r="E94" t="n">
-        <v>1.22</v>
+        <v>52.706</v>
       </c>
       <c r="F94" t="n">
-        <v>52.706</v>
+        <v>3.4016837e-05</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3370,13 +3415,13 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.3466919948725461</v>
+        <v>1.97</v>
       </c>
       <c r="E95" t="n">
-        <v>1.97</v>
+        <v>30.296</v>
       </c>
       <c r="F95" t="n">
-        <v>30.296</v>
+        <v>5.4928827e-05</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3401,13 +3446,13 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.2788071290180769</v>
+        <v>1.43</v>
       </c>
       <c r="E96" t="n">
-        <v>1.43</v>
+        <v>52.388</v>
       </c>
       <c r="F96" t="n">
-        <v>52.388</v>
+        <v>3.9872194e-05</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3432,13 +3477,13 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.8614404033842</v>
+        <v>3.747368</v>
       </c>
       <c r="E97" t="n">
-        <v>3.747368</v>
+        <v>74.898554</v>
       </c>
       <c r="F97" t="n">
-        <v>74.898554</v>
+        <v>0.00010448656</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3463,13 +3508,13 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.8614404033842</v>
+        <v>3.747368</v>
       </c>
       <c r="E98" t="n">
-        <v>3.747368</v>
+        <v>74.898554</v>
       </c>
       <c r="F98" t="n">
-        <v>74.898554</v>
+        <v>0.00010448656</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3494,13 +3539,13 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.8614404033842</v>
+        <v>3.747368</v>
       </c>
       <c r="E99" t="n">
-        <v>3.747368</v>
+        <v>74.898554</v>
       </c>
       <c r="F99" t="n">
-        <v>74.898554</v>
+        <v>0.00010448656</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3525,13 +3570,13 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1.27180397</v>
+        <v>1.91325</v>
       </c>
       <c r="E100" t="n">
-        <v>1.91325</v>
+        <v>34.82125</v>
       </c>
       <c r="F100" t="n">
-        <v>34.82125</v>
+        <v>5.3346487e-05</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3556,13 +3601,13 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2.7820335</v>
+        <v>5.550000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>5.550000000000001</v>
+        <v>11.5255</v>
       </c>
       <c r="F101" t="n">
-        <v>11.5255</v>
+        <v>0.00015474873</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3587,13 +3632,13 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2.067045963</v>
+        <v>5.363</v>
       </c>
       <c r="E102" t="n">
-        <v>5.363</v>
+        <v>134.45362</v>
       </c>
       <c r="F102" t="n">
-        <v>134.45362</v>
+        <v>0.00014953467</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3618,13 +3663,13 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.07312030976180001</v>
+        <v>0.2645807066666667</v>
       </c>
       <c r="E103" t="n">
-        <v>0.2645807066666667</v>
+        <v>4.9818619</v>
       </c>
       <c r="F103" t="n">
-        <v>4.9818619</v>
+        <v>7.3772122e-06</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3649,13 +3694,13 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.518758475854</v>
+        <v>2.9108806</v>
       </c>
       <c r="E104" t="n">
-        <v>2.9108806</v>
+        <v>72.93422200000001</v>
       </c>
       <c r="F104" t="n">
-        <v>72.93422200000001</v>
+        <v>8.1163074e-05</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3680,13 +3725,13 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.5641309657560001</v>
+        <v>3.210602066666667</v>
       </c>
       <c r="E105" t="n">
-        <v>3.210602066666667</v>
+        <v>64.00144</v>
       </c>
       <c r="F105" t="n">
-        <v>64.00144</v>
+        <v>8.9520105e-05</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3711,13 +3756,13 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.72032915281167</v>
+        <v>4.1313916</v>
       </c>
       <c r="E106" t="n">
-        <v>4.1313916</v>
+        <v>60.61437</v>
       </c>
       <c r="F106" t="n">
-        <v>60.61437</v>
+        <v>0.00011519416</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3742,13 +3787,13 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.60938973581955</v>
+        <v>3.4331486</v>
       </c>
       <c r="E107" t="n">
-        <v>3.4331486</v>
+        <v>74.497157</v>
       </c>
       <c r="F107" t="n">
-        <v>74.497157</v>
+        <v>9.5725293e-05</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -3773,13 +3818,13 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.562734606793</v>
+        <v>3.202655066666667</v>
       </c>
       <c r="E108" t="n">
-        <v>3.202655066666667</v>
+        <v>63.843021</v>
       </c>
       <c r="F108" t="n">
-        <v>63.843021</v>
+        <v>8.9298521e-05</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3804,13 +3849,13 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.518758475854</v>
+        <v>2.9108806</v>
       </c>
       <c r="E109" t="n">
-        <v>2.9108806</v>
+        <v>72.93422200000001</v>
       </c>
       <c r="F109" t="n">
-        <v>72.93422200000001</v>
+        <v>8.1163074e-05</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3835,13 +3880,13 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.6994503693370699</v>
+        <v>3.203322333333333</v>
       </c>
       <c r="E110" t="n">
-        <v>3.203322333333333</v>
+        <v>108.09156</v>
       </c>
       <c r="F110" t="n">
-        <v>108.09156</v>
+        <v>8.9317126e-05</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -3866,13 +3911,13 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.296293571721455</v>
+        <v>1.375880533333333</v>
       </c>
       <c r="E111" t="n">
-        <v>1.375880533333333</v>
+        <v>101.04117</v>
       </c>
       <c r="F111" t="n">
-        <v>101.04117</v>
+        <v>3.8363199e-05</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -3897,13 +3942,13 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.5641309657560001</v>
+        <v>3.210602066666667</v>
       </c>
       <c r="E112" t="n">
-        <v>3.210602066666667</v>
+        <v>64.00144</v>
       </c>
       <c r="F112" t="n">
-        <v>64.00144</v>
+        <v>8.9520105e-05</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -3928,13 +3973,13 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.970507509479</v>
+        <v>5.014047266666667</v>
       </c>
       <c r="E113" t="n">
-        <v>5.014047266666667</v>
+        <v>98.370125</v>
       </c>
       <c r="F113" t="n">
-        <v>98.370125</v>
+        <v>0.00013980494</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -3959,13 +4004,13 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.7376609015460001</v>
+        <v>3.536951800000001</v>
       </c>
       <c r="E114" t="n">
-        <v>3.536951800000001</v>
+        <v>71.077997</v>
       </c>
       <c r="F114" t="n">
-        <v>71.077997</v>
+        <v>9.861960200000001e-05</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -3990,13 +4035,13 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.21499817298812</v>
+        <v>1.015163533333333</v>
       </c>
       <c r="E115" t="n">
-        <v>1.015163533333333</v>
+        <v>41.472353</v>
       </c>
       <c r="F115" t="n">
-        <v>41.472353</v>
+        <v>2.8305453e-05</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -4021,13 +4066,13 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.2148659720351</v>
+        <v>1.014531466666667</v>
       </c>
       <c r="E116" t="n">
-        <v>1.014531466666667</v>
+        <v>41.446529</v>
       </c>
       <c r="F116" t="n">
-        <v>41.446529</v>
+        <v>2.8287829e-05</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4052,13 +4097,13 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.8546163674864399</v>
+        <v>2.135589266666666</v>
       </c>
       <c r="E117" t="n">
-        <v>2.135589266666666</v>
+        <v>43.504865</v>
       </c>
       <c r="F117" t="n">
-        <v>43.504865</v>
+        <v>5.9545895e-05</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -4083,13 +4128,13 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.6760126877788301</v>
+        <v>0.5026733466666666</v>
       </c>
       <c r="E118" t="n">
-        <v>0.5026733466666666</v>
+        <v>7.4880533</v>
       </c>
       <c r="F118" t="n">
-        <v>7.4880533</v>
+        <v>1.4015867e-05</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -4114,13 +4159,13 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.409153406027194</v>
+        <v>1.966388466666667</v>
       </c>
       <c r="E119" t="n">
-        <v>1.966388466666667</v>
+        <v>54.821612</v>
       </c>
       <c r="F119" t="n">
-        <v>54.821612</v>
+        <v>5.4828128e-05</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -4145,13 +4190,13 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1.48468774915155</v>
+        <v>3.983525266666667</v>
       </c>
       <c r="E120" t="n">
-        <v>3.983525266666667</v>
+        <v>77.763001</v>
       </c>
       <c r="F120" t="n">
-        <v>77.763001</v>
+        <v>0.00011107125</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -4176,13 +4221,13 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.6797435913305701</v>
+        <v>2.0578642</v>
       </c>
       <c r="E121" t="n">
-        <v>2.0578642</v>
+        <v>50.653555</v>
       </c>
       <c r="F121" t="n">
-        <v>50.653555</v>
+        <v>5.7378714e-05</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -4207,13 +4252,13 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.721876219452</v>
+        <v>4.013870666666667</v>
       </c>
       <c r="E122" t="n">
-        <v>4.013870666666667</v>
+        <v>94.767263</v>
       </c>
       <c r="F122" t="n">
-        <v>94.767263</v>
+        <v>0.00011191736</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4238,13 +4283,13 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.796922138204</v>
+        <v>4.426589333333334</v>
       </c>
       <c r="E123" t="n">
-        <v>4.426589333333334</v>
+        <v>100.15542</v>
       </c>
       <c r="F123" t="n">
-        <v>100.15542</v>
+        <v>0.00012342506</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -4269,13 +4314,13 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.34507206574411</v>
+        <v>1.629337466666667</v>
       </c>
       <c r="E124" t="n">
-        <v>1.629337466666667</v>
+        <v>66.563126</v>
       </c>
       <c r="F124" t="n">
-        <v>66.563126</v>
+        <v>4.5430253e-05</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4300,13 +4345,13 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0.60938973581955</v>
+        <v>3.4331486</v>
       </c>
       <c r="E125" t="n">
-        <v>3.4331486</v>
+        <v>74.497157</v>
       </c>
       <c r="F125" t="n">
-        <v>74.497157</v>
+        <v>9.5725293e-05</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -4331,13 +4376,13 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.68861040319941</v>
+        <v>3.879457933333333</v>
       </c>
       <c r="E126" t="n">
-        <v>3.879457933333333</v>
+        <v>84.181787</v>
       </c>
       <c r="F126" t="n">
-        <v>84.181787</v>
+        <v>0.00010816958</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -4362,13 +4407,13 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1.136723901311</v>
+        <v>6.4693632</v>
       </c>
       <c r="E127" t="n">
-        <v>6.4693632</v>
+        <v>128.9629</v>
       </c>
       <c r="F127" t="n">
-        <v>128.9629</v>
+        <v>0.00018038301</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -4393,13 +4438,13 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.655758311585</v>
+        <v>3.714655</v>
       </c>
       <c r="E128" t="n">
-        <v>3.714655</v>
+        <v>74.077997</v>
       </c>
       <c r="F128" t="n">
-        <v>74.077997</v>
+        <v>0.00010357444</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4424,13 +4469,13 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0.838865411897</v>
+        <v>4.659567733333334</v>
       </c>
       <c r="E129" t="n">
-        <v>4.659567733333334</v>
+        <v>105.42676</v>
       </c>
       <c r="F129" t="n">
-        <v>105.42676</v>
+        <v>0.00012992111</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4455,13 +4500,13 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.5645522841139999</v>
+        <v>3.1079692</v>
       </c>
       <c r="E130" t="n">
-        <v>3.1079692</v>
+        <v>67.738327</v>
       </c>
       <c r="F130" t="n">
-        <v>67.738327</v>
+        <v>8.6658427e-05</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -4486,13 +4531,13 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0.919013697872</v>
+        <v>4.680643733333334</v>
       </c>
       <c r="E131" t="n">
-        <v>4.680643733333334</v>
+        <v>89.09555</v>
       </c>
       <c r="F131" t="n">
-        <v>89.09555</v>
+        <v>0.00013050877</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -4517,13 +4562,13 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.23795591478412</v>
+        <v>1.302268533333333</v>
       </c>
       <c r="E132" t="n">
-        <v>1.302268533333333</v>
+        <v>25.363157</v>
       </c>
       <c r="F132" t="n">
-        <v>25.363157</v>
+        <v>3.6310703e-05</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -4548,13 +4593,13 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0.23795591478412</v>
+        <v>1.302268533333333</v>
       </c>
       <c r="E133" t="n">
-        <v>1.302268533333333</v>
+        <v>25.363157</v>
       </c>
       <c r="F133" t="n">
-        <v>25.363157</v>
+        <v>3.6310703e-05</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -4579,13 +4624,13 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0.321812052708</v>
+        <v>1.673234733333334</v>
       </c>
       <c r="E134" t="n">
-        <v>1.673234733333334</v>
+        <v>44.107467</v>
       </c>
       <c r="F134" t="n">
-        <v>44.107467</v>
+        <v>4.6654225e-05</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -4610,13 +4655,13 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.4170999235156</v>
+        <v>1.337781266666667</v>
       </c>
       <c r="E135" t="n">
-        <v>1.337781266666667</v>
+        <v>32.367798</v>
       </c>
       <c r="F135" t="n">
-        <v>32.367798</v>
+        <v>3.7300891e-05</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -4641,13 +4686,13 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.53213797543345</v>
+        <v>2.916776466666667</v>
       </c>
       <c r="E136" t="n">
-        <v>2.916776466666667</v>
+        <v>47.969318</v>
       </c>
       <c r="F136" t="n">
-        <v>47.969318</v>
+        <v>8.132746700000001e-05</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -4672,13 +4717,13 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.21499817298812</v>
+        <v>1.015163533333333</v>
       </c>
       <c r="E137" t="n">
-        <v>1.015163533333333</v>
+        <v>41.472353</v>
       </c>
       <c r="F137" t="n">
-        <v>41.472353</v>
+        <v>2.8305453e-05</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -4703,13 +4748,13 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.53670827467882</v>
+        <v>2.993217133333334</v>
       </c>
       <c r="E138" t="n">
-        <v>2.993217133333334</v>
+        <v>63.728487</v>
       </c>
       <c r="F138" t="n">
-        <v>63.728487</v>
+        <v>8.3458835e-05</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -4734,13 +4779,13 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.7316484026223999</v>
+        <v>2.486685666666667</v>
       </c>
       <c r="E139" t="n">
-        <v>2.486685666666667</v>
+        <v>32.029752</v>
       </c>
       <c r="F139" t="n">
-        <v>32.029752</v>
+        <v>6.933539500000001e-05</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -4765,13 +4810,13 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.354427885955291</v>
+        <v>1.9626096</v>
       </c>
       <c r="E140" t="n">
-        <v>1.9626096</v>
+        <v>36.538771</v>
       </c>
       <c r="F140" t="n">
-        <v>36.538771</v>
+        <v>5.4722763e-05</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -4796,13 +4841,13 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.28718752009358</v>
+        <v>1.594116066666667</v>
       </c>
       <c r="E141" t="n">
-        <v>1.594116066666667</v>
+        <v>25.273374</v>
       </c>
       <c r="F141" t="n">
-        <v>25.273374</v>
+        <v>4.4448186e-05</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -4827,13 +4872,13 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.3807294651855599</v>
+        <v>2.083629666666666</v>
       </c>
       <c r="E142" t="n">
-        <v>2.083629666666666</v>
+        <v>40.581051</v>
       </c>
       <c r="F142" t="n">
-        <v>40.581051</v>
+        <v>5.8097125e-05</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -4858,13 +4903,13 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.2148643064191</v>
+        <v>1.014531466666667</v>
       </c>
       <c r="E143" t="n">
-        <v>1.014531466666667</v>
+        <v>41.446529</v>
       </c>
       <c r="F143" t="n">
-        <v>41.446529</v>
+        <v>2.8287829e-05</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -4889,13 +4934,13 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0.773237305764</v>
+        <v>4.584324933333334</v>
       </c>
       <c r="E144" t="n">
-        <v>4.584324933333334</v>
+        <v>60.161716</v>
       </c>
       <c r="F144" t="n">
-        <v>60.161716</v>
+        <v>0.00012782314</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -4920,13 +4965,13 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>2.63032420511536</v>
+        <v>12.605054</v>
       </c>
       <c r="E145" t="n">
-        <v>12.605054</v>
+        <v>351.42059</v>
       </c>
       <c r="F145" t="n">
-        <v>351.42059</v>
+        <v>0.00035146236</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -4951,13 +4996,13 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.838865411897</v>
+        <v>4.659567733333334</v>
       </c>
       <c r="E146" t="n">
-        <v>4.659567733333334</v>
+        <v>105.42676</v>
       </c>
       <c r="F146" t="n">
-        <v>105.42676</v>
+        <v>0.00012992111</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -4982,13 +5027,13 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0.677400745949</v>
+        <v>3.838021266666667</v>
       </c>
       <c r="E147" t="n">
-        <v>3.838021266666667</v>
+        <v>76.747466</v>
       </c>
       <c r="F147" t="n">
-        <v>76.747466</v>
+        <v>0.00010701422</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -5013,13 +5058,13 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0.9340912518979999</v>
+        <v>4.6548084</v>
       </c>
       <c r="E148" t="n">
-        <v>4.6548084</v>
+        <v>83.060756</v>
       </c>
       <c r="F148" t="n">
-        <v>83.060756</v>
+        <v>0.00012978841</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -5044,13 +5089,13 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.21499817298812</v>
+        <v>1.015163533333333</v>
       </c>
       <c r="E149" t="n">
-        <v>1.015163533333333</v>
+        <v>41.472353</v>
       </c>
       <c r="F149" t="n">
-        <v>41.472353</v>
+        <v>2.8305453e-05</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -5075,13 +5120,13 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0.21499817298812</v>
+        <v>1.015163533333333</v>
       </c>
       <c r="E150" t="n">
-        <v>1.015163533333333</v>
+        <v>41.472353</v>
       </c>
       <c r="F150" t="n">
-        <v>41.472353</v>
+        <v>2.8305453e-05</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -5106,13 +5151,13 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.51225754496</v>
+        <v>2.5475496</v>
       </c>
       <c r="E151" t="n">
-        <v>2.5475496</v>
+        <v>79.121731</v>
       </c>
       <c r="F151" t="n">
-        <v>79.121731</v>
+        <v>7.1032443e-05</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -5137,13 +5182,13 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1.030516415581</v>
+        <v>4.9247512</v>
       </c>
       <c r="E152" t="n">
-        <v>4.9247512</v>
+        <v>106.96622</v>
       </c>
       <c r="F152" t="n">
-        <v>106.96622</v>
+        <v>0.00013731513</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -5168,13 +5213,13 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>2.62277821581536</v>
+        <v>12.605054</v>
       </c>
       <c r="E153" t="n">
-        <v>12.605054</v>
+        <v>351.42059</v>
       </c>
       <c r="F153" t="n">
-        <v>351.42059</v>
+        <v>0.00035146236</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -5199,13 +5244,13 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1.084876830374</v>
+        <v>5.809134333333334</v>
       </c>
       <c r="E154" t="n">
-        <v>5.809134333333334</v>
+        <v>126.98236</v>
       </c>
       <c r="F154" t="n">
-        <v>126.98236</v>
+        <v>0.00016197408</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -5230,13 +5275,13 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.454028742221</v>
+        <v>1.749341533333333</v>
       </c>
       <c r="E155" t="n">
-        <v>1.749341533333333</v>
+        <v>46.934571</v>
       </c>
       <c r="F155" t="n">
-        <v>46.934571</v>
+        <v>4.8776284e-05</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -5261,13 +5306,13 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>2.62277821581536</v>
+        <v>12.605054</v>
       </c>
       <c r="E156" t="n">
-        <v>12.605054</v>
+        <v>351.42059</v>
       </c>
       <c r="F156" t="n">
-        <v>351.42059</v>
+        <v>0.00035146236</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -5292,13 +5337,13 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2.62277821581536</v>
+        <v>12.605054</v>
       </c>
       <c r="E157" t="n">
-        <v>12.605054</v>
+        <v>351.42059</v>
       </c>
       <c r="F157" t="n">
-        <v>351.42059</v>
+        <v>0.00035146236</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -5323,13 +5368,13 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0.637042413104</v>
+        <v>3.481423933333334</v>
       </c>
       <c r="E158" t="n">
-        <v>3.481423933333334</v>
+        <v>73.19087500000001</v>
       </c>
       <c r="F158" t="n">
-        <v>73.19087500000001</v>
+        <v>9.7071337e-05</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -5354,13 +5399,13 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.9376569090969999</v>
+        <v>4.2574748</v>
       </c>
       <c r="E159" t="n">
-        <v>4.2574748</v>
+        <v>85.63084000000001</v>
       </c>
       <c r="F159" t="n">
-        <v>85.63084000000001</v>
+        <v>0.00011870969</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -5385,13 +5430,13 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0.9415543658438501</v>
+        <v>4.095873266666667</v>
       </c>
       <c r="E160" t="n">
-        <v>4.095873266666667</v>
+        <v>81.864119</v>
       </c>
       <c r="F160" t="n">
-        <v>81.864119</v>
+        <v>0.00011420381</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -5416,13 +5461,13 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1.189137679597</v>
+        <v>7.106320666666667</v>
       </c>
       <c r="E161" t="n">
-        <v>7.106320666666667</v>
+        <v>109.40133</v>
       </c>
       <c r="F161" t="n">
-        <v>109.40133</v>
+        <v>0.00019814308</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -5447,13 +5492,13 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0.9465940245700001</v>
+        <v>5.4871084</v>
       </c>
       <c r="E162" t="n">
-        <v>5.4871084</v>
+        <v>159.8824</v>
       </c>
       <c r="F162" t="n">
-        <v>159.8824</v>
+        <v>0.00015299514</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -5478,13 +5523,13 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>3.9571901523068</v>
+        <v>18.83905</v>
       </c>
       <c r="E163" t="n">
-        <v>18.83905</v>
+        <v>283.98751</v>
       </c>
       <c r="F163" t="n">
-        <v>283.98751</v>
+        <v>0.0005252827</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -5509,13 +5554,13 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>3.110885575504</v>
+        <v>17.028758</v>
       </c>
       <c r="E164" t="n">
-        <v>17.028758</v>
+        <v>265.76799</v>
       </c>
       <c r="F164" t="n">
-        <v>265.76799</v>
+        <v>0.00047480697</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -5540,13 +5585,13 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.8845606927795999</v>
+        <v>4.8722648</v>
       </c>
       <c r="E165" t="n">
-        <v>4.8722648</v>
+        <v>79.790792</v>
       </c>
       <c r="F165" t="n">
-        <v>79.790792</v>
+        <v>0.00013585167</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -5571,13 +5616,13 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.7032717894389999</v>
+        <v>4.0866052</v>
       </c>
       <c r="E166" t="n">
-        <v>4.0866052</v>
+        <v>62.439361</v>
       </c>
       <c r="F166" t="n">
-        <v>62.439361</v>
+        <v>0.0001139454</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -5602,13 +5647,13 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.80689680163</v>
+        <v>4.2562878</v>
       </c>
       <c r="E167" t="n">
-        <v>4.2562878</v>
+        <v>64.010274</v>
       </c>
       <c r="F167" t="n">
-        <v>64.010274</v>
+        <v>0.0001186766</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -5633,13 +5678,13 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.914211100687</v>
+        <v>4.908161733333333</v>
       </c>
       <c r="E168" t="n">
-        <v>4.908161733333333</v>
+        <v>73.405417</v>
       </c>
       <c r="F168" t="n">
-        <v>73.405417</v>
+        <v>0.00013685257</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -5664,13 +5709,13 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1.036660964108</v>
+        <v>5.772092533333334</v>
       </c>
       <c r="E169" t="n">
-        <v>5.772092533333334</v>
+        <v>91.07374</v>
       </c>
       <c r="F169" t="n">
-        <v>91.07374</v>
+        <v>0.00016094126</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -5695,13 +5740,13 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2.051048756707</v>
+        <v>11.072684</v>
       </c>
       <c r="E170" t="n">
-        <v>11.072684</v>
+        <v>173.08247</v>
       </c>
       <c r="F170" t="n">
-        <v>173.08247</v>
+        <v>0.00030873581</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -5726,13 +5771,13 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>3.410988325939</v>
+        <v>17.72458933333333</v>
       </c>
       <c r="E171" t="n">
-        <v>17.72458933333333</v>
+        <v>267.2817</v>
       </c>
       <c r="F171" t="n">
-        <v>267.2817</v>
+        <v>0.00049420857</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -5757,13 +5802,13 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0.931808487379</v>
+        <v>5.041475066666667</v>
       </c>
       <c r="E172" t="n">
-        <v>5.041475066666667</v>
+        <v>77.182863</v>
       </c>
       <c r="F172" t="n">
-        <v>77.182863</v>
+        <v>0.0001405697</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -5788,13 +5833,13 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0.7850019747895001</v>
+        <v>4.140441066666667</v>
       </c>
       <c r="E173" t="n">
-        <v>4.140441066666667</v>
+        <v>66.305227</v>
       </c>
       <c r="F173" t="n">
-        <v>66.305227</v>
+        <v>0.00011544648</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -5819,13 +5864,13 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>3.0788978131</v>
+        <v>17.16362133333334</v>
       </c>
       <c r="E174" t="n">
-        <v>17.16362133333334</v>
+        <v>268.39865</v>
       </c>
       <c r="F174" t="n">
-        <v>268.39865</v>
+        <v>0.0004785673</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -5850,13 +5895,13 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1.349475079315</v>
+        <v>7.134548000000001</v>
       </c>
       <c r="E175" t="n">
-        <v>7.134548000000001</v>
+        <v>106.81737</v>
       </c>
       <c r="F175" t="n">
-        <v>106.81737</v>
+        <v>0.00019893013</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -5881,13 +5926,13 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1.94683628091</v>
+        <v>10.701706</v>
       </c>
       <c r="E176" t="n">
-        <v>10.701706</v>
+        <v>171.42168</v>
       </c>
       <c r="F176" t="n">
-        <v>171.42168</v>
+        <v>0.00029839197</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -5912,13 +5957,13 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0.674592194892</v>
+        <v>3.554398533333333</v>
       </c>
       <c r="E177" t="n">
-        <v>3.554398533333333</v>
+        <v>49.803798</v>
       </c>
       <c r="F177" t="n">
-        <v>49.803798</v>
+        <v>9.9106063e-05</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -5943,13 +5988,13 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>3.429557586585</v>
+        <v>19.61133533333333</v>
       </c>
       <c r="E178" t="n">
-        <v>19.61133533333333</v>
+        <v>304.90525</v>
       </c>
       <c r="F178" t="n">
-        <v>304.90525</v>
+        <v>0.00054681606</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -5974,13 +6019,13 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1.544333428464</v>
+        <v>8.338665333333333</v>
       </c>
       <c r="E179" t="n">
-        <v>8.338665333333333</v>
+        <v>134.51144</v>
       </c>
       <c r="F179" t="n">
-        <v>134.51144</v>
+        <v>0.00023250412</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -6005,13 +6050,13 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1.463059594745</v>
+        <v>7.850446666666667</v>
       </c>
       <c r="E180" t="n">
-        <v>7.850446666666667</v>
+        <v>123.40009</v>
       </c>
       <c r="F180" t="n">
-        <v>123.40009</v>
+        <v>0.00021889127</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -6036,13 +6081,13 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>5.709921362192</v>
+        <v>29.904756</v>
       </c>
       <c r="E181" t="n">
-        <v>29.904756</v>
+        <v>513.07991</v>
       </c>
       <c r="F181" t="n">
-        <v>513.07991</v>
+        <v>0.00083382394</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -6067,13 +6112,13 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>2.131799587352</v>
+        <v>11.597696</v>
       </c>
       <c r="E182" t="n">
-        <v>11.597696</v>
+        <v>183.63866</v>
       </c>
       <c r="F182" t="n">
-        <v>183.63866</v>
+        <v>0.00032337455</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -6098,13 +6143,13 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>3.680325961451</v>
+        <v>20.14824533333334</v>
       </c>
       <c r="E183" t="n">
-        <v>20.14824533333334</v>
+        <v>331.4854</v>
       </c>
       <c r="F183" t="n">
-        <v>331.4854</v>
+        <v>0.00056178654</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -6129,13 +6174,13 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1.629239350568</v>
+        <v>8.765732</v>
       </c>
       <c r="E184" t="n">
-        <v>8.765732</v>
+        <v>140.85844</v>
       </c>
       <c r="F184" t="n">
-        <v>140.85844</v>
+        <v>0.00024441187</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -6160,13 +6205,13 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1.126945938654</v>
+        <v>5.9971802</v>
       </c>
       <c r="E185" t="n">
-        <v>5.9971802</v>
+        <v>89.11999</v>
       </c>
       <c r="F185" t="n">
-        <v>89.11999</v>
+        <v>0.0001672173</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -6191,13 +6236,13 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>2.066464975682</v>
+        <v>11.106302</v>
       </c>
       <c r="E186" t="n">
-        <v>11.106302</v>
+        <v>171.49446</v>
       </c>
       <c r="F186" t="n">
-        <v>171.49446</v>
+        <v>0.00030967317</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -6222,13 +6267,13 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>3.943860624951</v>
+        <v>22.23878733333333</v>
       </c>
       <c r="E187" t="n">
-        <v>22.23878733333333</v>
+        <v>349.04144</v>
       </c>
       <c r="F187" t="n">
-        <v>349.04144</v>
+        <v>0.0006200764</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -6253,13 +6298,13 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>2.122033385695</v>
+        <v>11.43765866666667</v>
       </c>
       <c r="E188" t="n">
-        <v>11.43765866666667</v>
+        <v>177.56875</v>
       </c>
       <c r="F188" t="n">
-        <v>177.56875</v>
+        <v>0.00031891226</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -6284,13 +6329,13 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1.610905086833</v>
+        <v>8.983987333333333</v>
       </c>
       <c r="E189" t="n">
-        <v>8.983987333333333</v>
+        <v>141.57043</v>
       </c>
       <c r="F189" t="n">
-        <v>141.57043</v>
+        <v>0.00025049741</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -6315,13 +6360,13 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1.194893064503</v>
+        <v>6.362434066666667</v>
       </c>
       <c r="E190" t="n">
-        <v>6.362434066666667</v>
+        <v>100.33471</v>
       </c>
       <c r="F190" t="n">
-        <v>100.33471</v>
+        <v>0.00017740154</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -6346,13 +6391,13 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0.954611076967</v>
+        <v>5.233569933333333</v>
       </c>
       <c r="E191" t="n">
-        <v>5.233569933333333</v>
+        <v>85.151639</v>
       </c>
       <c r="F191" t="n">
-        <v>85.151639</v>
+        <v>0.00014592582</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -6377,13 +6422,13 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>3.579728973136</v>
+        <v>18.59792733333333</v>
       </c>
       <c r="E192" t="n">
-        <v>18.59792733333333</v>
+        <v>280.94168</v>
       </c>
       <c r="F192" t="n">
-        <v>280.94168</v>
+        <v>0.00051855955</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -6408,13 +6453,13 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>1.775318606166</v>
+        <v>9.654415333333333</v>
       </c>
       <c r="E193" t="n">
-        <v>9.654415333333333</v>
+        <v>153.74841</v>
       </c>
       <c r="F193" t="n">
-        <v>153.74841</v>
+        <v>0.00026919071</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -6439,13 +6484,13 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>5.165942074283</v>
+        <v>28.82410666666667</v>
       </c>
       <c r="E194" t="n">
-        <v>28.82410666666667</v>
+        <v>453.20258</v>
       </c>
       <c r="F194" t="n">
-        <v>453.20258</v>
+        <v>0.00080369258</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -6470,13 +6515,13 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0.6322675833757</v>
+        <v>3.4441904</v>
       </c>
       <c r="E195" t="n">
-        <v>3.4441904</v>
+        <v>54.852403</v>
       </c>
       <c r="F195" t="n">
-        <v>54.852403</v>
+        <v>9.6033168e-05</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -6501,13 +6546,13 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1.612141927137</v>
+        <v>8.656819333333335</v>
       </c>
       <c r="E196" t="n">
-        <v>8.656819333333335</v>
+        <v>139.92183</v>
       </c>
       <c r="F196" t="n">
-        <v>139.92183</v>
+        <v>0.00024137509</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -6532,13 +6577,13 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>0.8183513745069999</v>
+        <v>4.556701533333333</v>
       </c>
       <c r="E197" t="n">
-        <v>4.556701533333333</v>
+        <v>71.012721</v>
       </c>
       <c r="F197" t="n">
-        <v>71.012721</v>
+        <v>0.00012705293</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -6563,13 +6608,13 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1.214643789966</v>
+        <v>6.5988864</v>
       </c>
       <c r="E198" t="n">
-        <v>6.5988864</v>
+        <v>107.84863</v>
       </c>
       <c r="F198" t="n">
-        <v>107.84863</v>
+        <v>0.00018399446</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -6594,13 +6639,13 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>1.036715823562</v>
+        <v>5.675676733333334</v>
       </c>
       <c r="E199" t="n">
-        <v>5.675676733333334</v>
+        <v>91.96150400000001</v>
       </c>
       <c r="F199" t="n">
-        <v>91.96150400000001</v>
+        <v>0.00015825293</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -6625,13 +6670,13 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>1.524143547658</v>
+        <v>8.173439333333333</v>
       </c>
       <c r="E200" t="n">
-        <v>8.173439333333333</v>
+        <v>132.51434</v>
       </c>
       <c r="F200" t="n">
-        <v>132.51434</v>
+        <v>0.00022789717</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -6656,13 +6701,13 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0.6235545656027</v>
+        <v>3.428655933333333</v>
       </c>
       <c r="E201" t="n">
-        <v>3.428655933333333</v>
+        <v>55.201905</v>
       </c>
       <c r="F201" t="n">
-        <v>55.201905</v>
+        <v>9.5600026e-05</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -6687,13 +6732,13 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>1.1148748156</v>
+        <v>1.6216716</v>
       </c>
       <c r="E202" t="n">
-        <v>1.6216716</v>
+        <v>52.566099</v>
       </c>
       <c r="F202" t="n">
-        <v>52.566099</v>
+        <v>4.5216507e-05</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -6718,13 +6763,13 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>2.089185537</v>
+        <v>4.1765344</v>
       </c>
       <c r="E203" t="n">
-        <v>4.1765344</v>
+        <v>109.45375</v>
       </c>
       <c r="F203" t="n">
-        <v>109.45375</v>
+        <v>0.00011645286</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -6749,13 +6794,13 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>0.9391648686999999</v>
+        <v>1.654433666666667</v>
       </c>
       <c r="E204" t="n">
-        <v>1.654433666666667</v>
+        <v>50.86755</v>
       </c>
       <c r="F204" t="n">
-        <v>50.86755</v>
+        <v>4.6130001e-05</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -6780,13 +6825,13 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>2.124373901</v>
+        <v>4.180807666666667</v>
       </c>
       <c r="E205" t="n">
-        <v>4.180807666666667</v>
+        <v>109.2322</v>
       </c>
       <c r="F205" t="n">
-        <v>109.2322</v>
+        <v>0.00011657201</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -6811,13 +6856,13 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>1.00123566049</v>
+        <v>2.643680266666667</v>
       </c>
       <c r="E206" t="n">
-        <v>2.643680266666667</v>
+        <v>68.25232800000001</v>
       </c>
       <c r="F206" t="n">
-        <v>68.25232800000001</v>
+        <v>7.371282e-05</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -6842,13 +6887,13 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>2.287341752</v>
+        <v>4.102261266666667</v>
       </c>
       <c r="E207" t="n">
-        <v>4.102261266666667</v>
+        <v>106.25402</v>
       </c>
       <c r="F207" t="n">
-        <v>106.25402</v>
+        <v>0.00011438193</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
@@ -6873,13 +6918,13 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>0.01561383849755</v>
+        <v>0.09287944000000001</v>
       </c>
       <c r="E208" t="n">
-        <v>0.09287944000000001</v>
+        <v>17.763779</v>
       </c>
       <c r="F208" t="n">
-        <v>17.763779</v>
+        <v>2.5897252e-06</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -6904,13 +6949,13 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>0.00571137774179</v>
+        <v>0.03397432133333333</v>
       </c>
       <c r="E209" t="n">
-        <v>0.03397432133333333</v>
+        <v>12.746392</v>
       </c>
       <c r="F209" t="n">
-        <v>12.746392</v>
+        <v>9.4729422e-07</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -6935,13 +6980,13 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>0.08644971449920001</v>
+        <v>0.4804709200000001</v>
       </c>
       <c r="E210" t="n">
-        <v>0.4804709200000001</v>
+        <v>7.7779522</v>
       </c>
       <c r="F210" t="n">
-        <v>7.7779522</v>
+        <v>1.3396804e-05</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -6966,13 +7011,13 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>0.81229957445936</v>
+        <v>4.1392166</v>
       </c>
       <c r="E211" t="n">
-        <v>4.1392166</v>
+        <v>55.334683</v>
       </c>
       <c r="F211" t="n">
-        <v>55.334683</v>
+        <v>0.00011541234</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
@@ -6997,13 +7042,13 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>5.1249888141</v>
+        <v>10.964</v>
       </c>
       <c r="E212" t="n">
-        <v>10.964</v>
+        <v>225.86633</v>
       </c>
       <c r="F212" t="n">
-        <v>225.86633</v>
+        <v>0.00030570541</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -7028,13 +7073,13 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>7.3579850781</v>
+        <v>22.583</v>
       </c>
       <c r="E213" t="n">
-        <v>22.583</v>
+        <v>486.16915</v>
       </c>
       <c r="F213" t="n">
-        <v>486.16915</v>
+        <v>0.00062967396</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -7059,13 +7104,13 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>0.2886017130581</v>
+        <v>1.7362112</v>
       </c>
       <c r="E214" t="n">
-        <v>1.7362112</v>
+        <v>67.16700899999999</v>
       </c>
       <c r="F214" t="n">
-        <v>67.16700899999999</v>
+        <v>4.8410175e-05</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -7090,13 +7135,13 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>0.799992506303</v>
+        <v>4.807139266666667</v>
       </c>
       <c r="E215" t="n">
-        <v>4.807139266666667</v>
+        <v>120.06762</v>
       </c>
       <c r="F215" t="n">
-        <v>120.06762</v>
+        <v>0.0001340358</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -7121,13 +7166,13 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>0.4858474991437</v>
+        <v>2.932618666666666</v>
       </c>
       <c r="E216" t="n">
-        <v>2.932618666666666</v>
+        <v>72.802592</v>
       </c>
       <c r="F216" t="n">
-        <v>72.802592</v>
+        <v>8.1769189e-05</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -7152,13 +7197,13 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>0.4045883009045</v>
+        <v>2.5746214</v>
       </c>
       <c r="E217" t="n">
-        <v>2.5746214</v>
+        <v>16.644254</v>
       </c>
       <c r="F217" t="n">
-        <v>16.644254</v>
+        <v>7.1787277e-05</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -7183,13 +7228,13 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>0.2956900109916</v>
+        <v>1.8881006</v>
       </c>
       <c r="E218" t="n">
-        <v>1.8881006</v>
+        <v>11.030616</v>
       </c>
       <c r="F218" t="n">
-        <v>11.030616</v>
+        <v>5.2645255e-05</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -7214,13 +7259,13 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>0.4567443668911</v>
+        <v>2.8865382</v>
       </c>
       <c r="E219" t="n">
-        <v>2.8865382</v>
+        <v>22.832145</v>
       </c>
       <c r="F219" t="n">
-        <v>22.832145</v>
+        <v>8.0484344e-05</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -7245,13 +7290,13 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>0.2396838497946</v>
+        <v>1.434972466666667</v>
       </c>
       <c r="E220" t="n">
-        <v>1.434972466666667</v>
+        <v>32.212064</v>
       </c>
       <c r="F220" t="n">
-        <v>32.212064</v>
+        <v>4.0010839e-05</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -7276,13 +7321,13 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>0.1103327853602</v>
+        <v>0.6777152666666667</v>
       </c>
       <c r="E221" t="n">
-        <v>0.6777152666666667</v>
+        <v>11.249873</v>
       </c>
       <c r="F221" t="n">
-        <v>11.249873</v>
+        <v>1.88965e-05</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -7307,13 +7352,13 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>0.2025053791342</v>
+        <v>1.2190702</v>
       </c>
       <c r="E222" t="n">
-        <v>1.2190702</v>
+        <v>64.565545</v>
       </c>
       <c r="F222" t="n">
-        <v>64.565545</v>
+        <v>3.3990912e-05</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -7338,13 +7383,13 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>0.363580524728</v>
+        <v>2.189703266666667</v>
       </c>
       <c r="E223" t="n">
-        <v>2.189703266666667</v>
+        <v>58.152207</v>
       </c>
       <c r="F223" t="n">
-        <v>58.152207</v>
+        <v>6.1054737e-05</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -7369,13 +7414,13 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>0.499783222802</v>
+        <v>3.009214866666667</v>
       </c>
       <c r="E224" t="n">
-        <v>3.009214866666667</v>
+        <v>87.611445</v>
       </c>
       <c r="F224" t="n">
-        <v>87.611445</v>
+        <v>8.3904895e-05</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -7400,13 +7445,13 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>0.1938585725751</v>
+        <v>1.161791533333334</v>
       </c>
       <c r="E225" t="n">
-        <v>1.161791533333334</v>
+        <v>33.38924</v>
       </c>
       <c r="F225" t="n">
-        <v>33.38924</v>
+        <v>3.2393831e-05</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -7431,13 +7476,13 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>0.2640831736272</v>
+        <v>1.587326333333333</v>
       </c>
       <c r="E226" t="n">
-        <v>1.587326333333333</v>
+        <v>61.100257</v>
       </c>
       <c r="F226" t="n">
-        <v>61.100257</v>
+        <v>4.4258869e-05</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -7462,13 +7507,13 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>0.4087921294659</v>
+        <v>2.448964733333334</v>
       </c>
       <c r="E227" t="n">
-        <v>2.448964733333334</v>
+        <v>48.294092</v>
       </c>
       <c r="F227" t="n">
-        <v>48.294092</v>
+        <v>6.828363499999999e-05</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -7493,13 +7538,13 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>0.2535029604324</v>
+        <v>1.624222666666667</v>
       </c>
       <c r="E228" t="n">
-        <v>1.624222666666667</v>
+        <v>10.073481</v>
       </c>
       <c r="F228" t="n">
-        <v>10.073481</v>
+        <v>4.5287637e-05</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -7524,13 +7569,13 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>0.2357043690325</v>
+        <v>1.5175148</v>
       </c>
       <c r="E229" t="n">
-        <v>1.5175148</v>
+        <v>8.525121800000001</v>
       </c>
       <c r="F229" t="n">
-        <v>8.525121800000001</v>
+        <v>4.231234e-05</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -7555,13 +7600,13 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>0.496784049839</v>
+        <v>2.991993066666667</v>
       </c>
       <c r="E230" t="n">
-        <v>2.991993066666667</v>
+        <v>79.439255</v>
       </c>
       <c r="F230" t="n">
-        <v>79.439255</v>
+        <v>8.342470499999999e-05</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -7586,13 +7631,13 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>0.4000124943389</v>
+        <v>2.402026733333333</v>
       </c>
       <c r="E231" t="n">
-        <v>2.402026733333333</v>
+        <v>70.78319500000001</v>
       </c>
       <c r="F231" t="n">
-        <v>70.78319500000001</v>
+        <v>6.6974879e-05</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -7617,13 +7662,13 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>0.3020235666462</v>
+        <v>1.875824333333333</v>
       </c>
       <c r="E232" t="n">
-        <v>1.875824333333333</v>
+        <v>35.293278</v>
       </c>
       <c r="F232" t="n">
-        <v>35.293278</v>
+        <v>5.230296e-05</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -7648,13 +7693,13 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>0.3379162662144</v>
+        <v>2.063076933333333</v>
       </c>
       <c r="E233" t="n">
-        <v>2.063076933333333</v>
+        <v>53.035992</v>
       </c>
       <c r="F233" t="n">
-        <v>53.035992</v>
+        <v>5.7524058e-05</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -7679,13 +7724,13 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>0.4193834020548</v>
+        <v>2.589157066666667</v>
       </c>
       <c r="E234" t="n">
-        <v>2.589157066666667</v>
+        <v>44.079315</v>
       </c>
       <c r="F234" t="n">
-        <v>44.079315</v>
+        <v>7.219256900000001e-05</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -7710,13 +7755,13 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>0.2976394356235</v>
+        <v>1.813533533333333</v>
       </c>
       <c r="E235" t="n">
-        <v>1.813533533333333</v>
+        <v>37.750659</v>
       </c>
       <c r="F235" t="n">
-        <v>37.750659</v>
+        <v>5.0566128e-05</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -7741,13 +7786,13 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>0.4281007466675</v>
+        <v>2.592737466666667</v>
       </c>
       <c r="E236" t="n">
-        <v>2.592737466666667</v>
+        <v>48.333768</v>
       </c>
       <c r="F236" t="n">
-        <v>48.333768</v>
+        <v>7.229240000000001e-05</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -7772,13 +7817,13 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>0.4405684610213</v>
+        <v>2.648269333333333</v>
       </c>
       <c r="E237" t="n">
-        <v>2.648269333333333</v>
+        <v>83.682305</v>
       </c>
       <c r="F237" t="n">
-        <v>83.682305</v>
+        <v>7.3840777e-05</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -7803,13 +7848,13 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>0.3821845314312</v>
+        <v>2.2965314</v>
       </c>
       <c r="E238" t="n">
-        <v>2.2965314</v>
+        <v>78.588081</v>
       </c>
       <c r="F238" t="n">
-        <v>78.588081</v>
+        <v>6.403338900000001e-05</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -7834,13 +7879,13 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>0.3961828406336</v>
+        <v>2.405899133333333</v>
       </c>
       <c r="E239" t="n">
-        <v>2.405899133333333</v>
+        <v>70.747754</v>
       </c>
       <c r="F239" t="n">
-        <v>70.747754</v>
+        <v>6.708285099999999e-05</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -7865,13 +7910,13 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>0.4729459872685</v>
+        <v>2.835911333333334</v>
       </c>
       <c r="E240" t="n">
-        <v>2.835911333333334</v>
+        <v>43.124981</v>
       </c>
       <c r="F240" t="n">
-        <v>43.124981</v>
+        <v>7.9072733e-05</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -7896,13 +7941,13 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>0.5236476808654</v>
+        <v>3.174094133333333</v>
       </c>
       <c r="E241" t="n">
-        <v>3.174094133333333</v>
+        <v>58.618197</v>
       </c>
       <c r="F241" t="n">
-        <v>58.618197</v>
+        <v>8.8502166e-05</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -7927,13 +7972,13 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>0.1739457602307</v>
+        <v>1.0588444</v>
       </c>
       <c r="E242" t="n">
-        <v>1.0588444</v>
+        <v>20.653793</v>
       </c>
       <c r="F242" t="n">
-        <v>20.653793</v>
+        <v>2.9523392e-05</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -7958,13 +8003,13 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>0.2886017130581</v>
+        <v>1.7362112</v>
       </c>
       <c r="E243" t="n">
-        <v>1.7362112</v>
+        <v>67.16700899999999</v>
       </c>
       <c r="F243" t="n">
-        <v>67.16700899999999</v>
+        <v>4.8410175e-05</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -7989,13 +8034,13 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>0.561104321246</v>
+        <v>3.380818666666667</v>
       </c>
       <c r="E244" t="n">
-        <v>3.380818666666667</v>
+        <v>63.022472</v>
       </c>
       <c r="F244" t="n">
-        <v>63.022472</v>
+        <v>9.4266195e-05</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -8020,13 +8065,13 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>0.2870375222728</v>
+        <v>1.723071533333334</v>
       </c>
       <c r="E245" t="n">
-        <v>1.723071533333334</v>
+        <v>57.013391</v>
       </c>
       <c r="F245" t="n">
-        <v>57.013391</v>
+        <v>4.8043807e-05</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -8036,5 +8081,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>